--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.3175323031682</v>
+        <v>217.981340117553</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.9852762905685</v>
+        <v>298.251686206714</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.1810674657159</v>
+        <v>269.7869638741038</v>
       </c>
       <c r="AD2" t="n">
-        <v>159317.5323031681</v>
+        <v>217981.340117553</v>
       </c>
       <c r="AE2" t="n">
-        <v>217985.2762905685</v>
+        <v>298251.686206714</v>
       </c>
       <c r="AF2" t="n">
         <v>1.27520225401259e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.30324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>197181.0674657159</v>
+        <v>269786.9638741039</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.6897847019695</v>
+        <v>166.6323910537105</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.0283555360256</v>
+        <v>227.993788741848</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.6600352884281</v>
+        <v>206.2343815356839</v>
       </c>
       <c r="AD3" t="n">
-        <v>117689.7847019695</v>
+        <v>166632.3910537105</v>
       </c>
       <c r="AE3" t="n">
-        <v>161028.3555360256</v>
+        <v>227993.788741848</v>
       </c>
       <c r="AF3" t="n">
         <v>1.599179593257938e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.814814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>145660.0352884281</v>
+        <v>206234.3815356839</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.9597201962552</v>
+        <v>187.0088496781223</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.4483784737634</v>
+        <v>255.8737583776643</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.6083928791313</v>
+        <v>231.45352599925</v>
       </c>
       <c r="AD2" t="n">
-        <v>128959.7201962552</v>
+        <v>187008.8496781223</v>
       </c>
       <c r="AE2" t="n">
-        <v>176448.3784737634</v>
+        <v>255873.7583776643</v>
       </c>
       <c r="AF2" t="n">
         <v>1.605350502633719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>159608.3928791313</v>
+        <v>231453.5259992499</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.088342842964</v>
+        <v>163.4910885935039</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.4689480170212</v>
+        <v>223.6957201313118</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.4403326273766</v>
+        <v>202.3465145609588</v>
       </c>
       <c r="AD3" t="n">
-        <v>115088.342842964</v>
+        <v>163491.088593504</v>
       </c>
       <c r="AE3" t="n">
-        <v>157468.9480170212</v>
+        <v>223695.7201313118</v>
       </c>
       <c r="AF3" t="n">
         <v>1.762453560335103e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.74537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>142440.3326273766</v>
+        <v>202346.5145609587</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.8149450551327</v>
+        <v>175.9136700747102</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.9360936866799</v>
+        <v>240.6928441595056</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.2902629910211</v>
+        <v>217.7214569275205</v>
       </c>
       <c r="AD2" t="n">
-        <v>119814.9450551327</v>
+        <v>175913.6700747102</v>
       </c>
       <c r="AE2" t="n">
-        <v>163936.0936866799</v>
+        <v>240692.8441595056</v>
       </c>
       <c r="AF2" t="n">
         <v>2.24956460618329e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>148290.2629910211</v>
+        <v>217721.4569275205</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.3180663864214</v>
+        <v>168.6635972211108</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.9927306051811</v>
+        <v>230.7729746305754</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.1506173685292</v>
+        <v>208.748325823804</v>
       </c>
       <c r="AD2" t="n">
-        <v>121318.0663864214</v>
+        <v>168663.5972211108</v>
       </c>
       <c r="AE2" t="n">
-        <v>165992.7306051811</v>
+        <v>230772.9746305754</v>
       </c>
       <c r="AF2" t="n">
         <v>2.059355309250275e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>150150.6173685292</v>
+        <v>208748.325823804</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.5591134504755</v>
+        <v>184.0665725975378</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.9002506506656</v>
+        <v>251.8480050719069</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.1125776061675</v>
+        <v>227.8119849388126</v>
       </c>
       <c r="AD2" t="n">
-        <v>128559.1134504755</v>
+        <v>184066.5725975378</v>
       </c>
       <c r="AE2" t="n">
-        <v>175900.2506506656</v>
+        <v>251848.0050719069</v>
       </c>
       <c r="AF2" t="n">
         <v>2.383955303975682e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>159112.5776061676</v>
+        <v>227811.9849388126</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.2546016215166</v>
+        <v>189.7660907267262</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.2707776516846</v>
+        <v>259.6463372212523</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.8252858899025</v>
+        <v>234.8660552128548</v>
       </c>
       <c r="AD2" t="n">
-        <v>141254.6016215166</v>
+        <v>189766.0907267262</v>
       </c>
       <c r="AE2" t="n">
-        <v>193270.7776516846</v>
+        <v>259646.3372212523</v>
       </c>
       <c r="AF2" t="n">
         <v>1.513922234285807e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.06481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>174825.2858899026</v>
+        <v>234866.0552128548</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.7082554239731</v>
+        <v>163.2528989181063</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.9488956420847</v>
+        <v>223.3698185092461</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.9699133212057</v>
+        <v>202.0517165322971</v>
       </c>
       <c r="AD3" t="n">
-        <v>114708.2554239731</v>
+        <v>163252.8989181063</v>
       </c>
       <c r="AE3" t="n">
-        <v>156948.8956420847</v>
+        <v>223369.8185092461</v>
       </c>
       <c r="AF3" t="n">
         <v>1.759405918401472e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.525462962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>141969.9133212057</v>
+        <v>202051.7165322971</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.8915769958459</v>
+        <v>192.9613673669117</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.6693389926689</v>
+        <v>264.0182556860085</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.6630020783421</v>
+        <v>238.8207239153621</v>
       </c>
       <c r="AD2" t="n">
-        <v>137891.5769958459</v>
+        <v>192961.3673669117</v>
       </c>
       <c r="AE2" t="n">
-        <v>188669.3389926689</v>
+        <v>264018.2556860085</v>
       </c>
       <c r="AF2" t="n">
         <v>2.437857260942173e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.32638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>170663.0020783421</v>
+        <v>238820.7239153621</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.5141512213349</v>
+        <v>161.4563701392995</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.3150695918764</v>
+        <v>220.9117285768278</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.4920173361396</v>
+        <v>199.8282232530771</v>
       </c>
       <c r="AD2" t="n">
-        <v>113514.1512213349</v>
+        <v>161456.3701392995</v>
       </c>
       <c r="AE2" t="n">
-        <v>155315.0695918764</v>
+        <v>220911.7285768278</v>
       </c>
       <c r="AF2" t="n">
         <v>1.888142884125038e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.884259259259258</v>
       </c>
       <c r="AH2" t="n">
-        <v>140492.0173361395</v>
+        <v>199828.2232530771</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.4520004300782</v>
+        <v>161.3942193480428</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.2300321373796</v>
+        <v>220.826691122331</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.4150957369491</v>
+        <v>199.7513016538866</v>
       </c>
       <c r="AD3" t="n">
-        <v>113452.0004300782</v>
+        <v>161394.2193480428</v>
       </c>
       <c r="AE3" t="n">
-        <v>155230.0321373796</v>
+        <v>220826.691122331</v>
       </c>
       <c r="AF3" t="n">
         <v>1.897145718740188e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>140415.0957369491</v>
+        <v>199751.3016538866</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.4070137707562</v>
+        <v>174.5951461302008</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.955652924938</v>
+        <v>238.8887815294575</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.4490081546136</v>
+        <v>216.0895715028659</v>
       </c>
       <c r="AD2" t="n">
-        <v>126407.0137707562</v>
+        <v>174595.1461302008</v>
       </c>
       <c r="AE2" t="n">
-        <v>172955.652924938</v>
+        <v>238888.7815294575</v>
       </c>
       <c r="AF2" t="n">
         <v>1.714790738278343e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>156449.0081546135</v>
+        <v>216089.5715028659</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.6844961251108</v>
+        <v>162.9399482922599</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.916387121195</v>
+        <v>222.9416256565561</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.9405073679237</v>
+        <v>201.6643898044952</v>
       </c>
       <c r="AD3" t="n">
-        <v>114684.4961251108</v>
+        <v>162939.9482922599</v>
       </c>
       <c r="AE3" t="n">
-        <v>156916.387121195</v>
+        <v>222941.625656556</v>
       </c>
       <c r="AF3" t="n">
         <v>1.797302449927576e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.803240740740742</v>
       </c>
       <c r="AH3" t="n">
-        <v>141940.5073679237</v>
+        <v>201664.3898044952</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7863030747287</v>
+        <v>215.0578170745645</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.8394956214102</v>
+        <v>294.2515930025652</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.6716560393623</v>
+        <v>266.1686339511917</v>
       </c>
       <c r="AD2" t="n">
-        <v>146786.3030747287</v>
+        <v>215057.8170745645</v>
       </c>
       <c r="AE2" t="n">
-        <v>200839.4956214101</v>
+        <v>294251.5930025652</v>
       </c>
       <c r="AF2" t="n">
         <v>1.344058048933611e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.9212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>181671.6560393623</v>
+        <v>266168.6339511917</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.0822358169067</v>
+        <v>165.896410700762</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.197080348318</v>
+        <v>226.9867879537828</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.9080958379331</v>
+        <v>205.3234874894968</v>
       </c>
       <c r="AD3" t="n">
-        <v>117082.2358169067</v>
+        <v>165896.410700762</v>
       </c>
       <c r="AE3" t="n">
-        <v>160197.080348318</v>
+        <v>226986.7879537828</v>
       </c>
       <c r="AF3" t="n">
         <v>1.636044744201251e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.791666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>144908.0958379331</v>
+        <v>205323.4874894969</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.2522540916436</v>
+        <v>169.3023751893176</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.5884862680614</v>
+        <v>231.6469788275706</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.930216701474</v>
+        <v>209.5389162869108</v>
       </c>
       <c r="AD2" t="n">
-        <v>112252.2540916437</v>
+        <v>169302.3751893177</v>
       </c>
       <c r="AE2" t="n">
-        <v>153588.4862680614</v>
+        <v>231646.9788275707</v>
       </c>
       <c r="AF2" t="n">
         <v>2.003138449535532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.976851851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>138930.216701474</v>
+        <v>209538.9162869108</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.0745930825052</v>
+        <v>167.0119401180342</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.2913555725933</v>
+        <v>228.5131045161784</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.6116191811562</v>
+        <v>206.7041345413767</v>
       </c>
       <c r="AD2" t="n">
-        <v>120074.5930825052</v>
+        <v>167011.9401180342</v>
       </c>
       <c r="AE2" t="n">
-        <v>164291.3555725933</v>
+        <v>228513.1045161784</v>
       </c>
       <c r="AF2" t="n">
         <v>2.195186335324807e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>148611.6191811562</v>
+        <v>206704.1345413767</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8488451419707</v>
+        <v>175.345527841308</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.2966743330292</v>
+        <v>239.9154868910986</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.4711671686706</v>
+        <v>217.0182895457823</v>
       </c>
       <c r="AD2" t="n">
-        <v>128848.8451419707</v>
+        <v>175345.527841308</v>
       </c>
       <c r="AE2" t="n">
-        <v>176296.6743330292</v>
+        <v>239915.4868910986</v>
       </c>
       <c r="AF2" t="n">
         <v>2.317053456367409e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>159471.1671686706</v>
+        <v>217018.2895457823</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.8395021418769</v>
+        <v>211.6635103071987</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.2805290489452</v>
+        <v>289.6073527372116</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9751592590769</v>
+        <v>261.9676334585298</v>
       </c>
       <c r="AD2" t="n">
-        <v>147839.5021418769</v>
+        <v>211663.5103071987</v>
       </c>
       <c r="AE2" t="n">
-        <v>202280.5290489452</v>
+        <v>289607.3527372116</v>
       </c>
       <c r="AF2" t="n">
         <v>2.444669760385727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>182975.159259077</v>
+        <v>261967.6334585298</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.5554660568288</v>
+        <v>172.5903222102097</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.4222836582238</v>
+        <v>236.145692995538</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.1574200951076</v>
+        <v>213.6082794886738</v>
       </c>
       <c r="AD2" t="n">
-        <v>124555.4660568288</v>
+        <v>172590.3222102097</v>
       </c>
       <c r="AE2" t="n">
-        <v>170422.2836582238</v>
+        <v>236145.692995538</v>
       </c>
       <c r="AF2" t="n">
         <v>1.806808628346248e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>154157.4200951076</v>
+        <v>213608.2794886738</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.0497035351533</v>
+        <v>162.1518794962386</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.047835894543</v>
+        <v>221.8633551626987</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.1548494513238</v>
+        <v>200.6890279332091</v>
       </c>
       <c r="AD3" t="n">
-        <v>114049.7035351533</v>
+        <v>162151.8794962386</v>
       </c>
       <c r="AE3" t="n">
-        <v>156047.835894543</v>
+        <v>221863.3551626987</v>
       </c>
       <c r="AF3" t="n">
         <v>1.845251365119572e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.826388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>141154.8494513238</v>
+        <v>200689.0279332091</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.1228501861856</v>
+        <v>202.5408229439444</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.1952418760589</v>
+        <v>277.1252894222513</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.3752047567239</v>
+        <v>250.6768407476596</v>
       </c>
       <c r="AD2" t="n">
-        <v>144122.8501861856</v>
+        <v>202540.8229439444</v>
       </c>
       <c r="AE2" t="n">
-        <v>197195.2418760589</v>
+        <v>277125.2894222513</v>
       </c>
       <c r="AF2" t="n">
         <v>1.420456270241197e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>178375.2047567239</v>
+        <v>250676.8407476596</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.2357731593252</v>
+        <v>164.9174171241241</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.0389127969187</v>
+        <v>225.6472857520791</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.8604621721405</v>
+        <v>204.1118254979202</v>
       </c>
       <c r="AD3" t="n">
-        <v>116235.7731593252</v>
+        <v>164917.4171241241</v>
       </c>
       <c r="AE3" t="n">
-        <v>159038.9127969187</v>
+        <v>225647.2857520791</v>
       </c>
       <c r="AF3" t="n">
         <v>1.681950964237886e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.733796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>143860.4621721405</v>
+        <v>204111.8254979202</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.9019956926774</v>
+        <v>259.1061961656533</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.7275560407136</v>
+        <v>354.5205285524661</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.3212770081415</v>
+        <v>320.6855868801049</v>
       </c>
       <c r="AD2" t="n">
-        <v>186901.9956926774</v>
+        <v>259106.1961656533</v>
       </c>
       <c r="AE2" t="n">
-        <v>255727.5560407136</v>
+        <v>354520.5285524661</v>
       </c>
       <c r="AF2" t="n">
         <v>2.326441897038958e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>231321.2770081415</v>
+        <v>320685.5868801049</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6162772996086</v>
+        <v>167.7644967944762</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.032511815855</v>
+        <v>229.5427857613433</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.2820405127805</v>
+        <v>207.63554445367</v>
       </c>
       <c r="AD2" t="n">
-        <v>120616.2772996086</v>
+        <v>167764.4967944762</v>
       </c>
       <c r="AE2" t="n">
-        <v>165032.511815855</v>
+        <v>229542.7857613433</v>
       </c>
       <c r="AF2" t="n">
         <v>2.128719839194534e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.17361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>149282.0405127805</v>
+        <v>207635.54445367</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.8362892968359</v>
+        <v>170.0976461540066</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.3875890016198</v>
+        <v>232.7351036463364</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.6530541916895</v>
+        <v>210.5231920001667</v>
       </c>
       <c r="AD2" t="n">
-        <v>112836.2892968359</v>
+        <v>170097.6461540067</v>
       </c>
       <c r="AE2" t="n">
-        <v>154387.5890016198</v>
+        <v>232735.1036463364</v>
       </c>
       <c r="AF2" t="n">
         <v>1.946050293229781e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.907407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>139653.0541916895</v>
+        <v>210523.1920001667</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9289280602114</v>
+        <v>170.1902849173822</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.5143414446039</v>
+        <v>232.8618560893204</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.7677095594134</v>
+        <v>210.6378473678906</v>
       </c>
       <c r="AD3" t="n">
-        <v>112928.9280602114</v>
+        <v>170190.2849173822</v>
       </c>
       <c r="AE3" t="n">
-        <v>154514.3414446039</v>
+        <v>232861.8560893204</v>
       </c>
       <c r="AF3" t="n">
         <v>1.945600377933149e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.907407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>139767.7095594134</v>
+        <v>210637.8473678906</v>
       </c>
     </row>
   </sheetData>
